--- a/resources/schema-template.xlsx
+++ b/resources/schema-template.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28908"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/sandbox/tmp/excel-templates-example/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elbert/Develop/hctech/demo/mysql-schema-doc/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97CE96E-6769-DE49-8986-602D6A0DE1D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="2460" windowWidth="26640" windowHeight="15040" activeTab="1" xr2:uid="{3B1AC2FF-A2C1-5F4A-8B3F-EC0255B42704}"/>
+    <workbookView xWindow="2960" yWindow="3040" windowWidth="41860" windowHeight="12460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
     <sheet name="table" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>数据库的表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>引擎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,35 +53,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <rPh sb="0" eb="1">
+      <t>biao'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <rPh sb="0" eb="1">
+      <t>miao'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空值</t>
+    <rPh sb="0" eb="1">
+      <t>kong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型（精度）</t>
+    <rPh sb="5" eb="6">
+      <t>jing'du</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -130,16 +139,53 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -149,7 +195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -161,6 +207,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,51 +539,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B2D1A8-0199-BA4E-9200-22A93B7794F0}">
-  <dimension ref="B3:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="2:4">
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="2:4">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="21" customHeight="1">
+    </row>
+    <row r="6" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="B3:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -527,57 +584,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FA7B3B-F019-DA4E-9CBC-DCED581DD2B0}">
-  <dimension ref="B4:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="6"/>
+    <col min="6" max="6" width="24.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
